--- a/Acts.xlsx
+++ b/Acts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E5536-329E-4B9E-A4B8-A0FA3EAEAD01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE49623B-87D1-40AB-96D9-DEAB12012E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -970,8 +970,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K29" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A5:K28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Acts" displayName="Acts" ref="A5:K39" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A5:K38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" totalsRowLabel="Итог" totalsRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2" totalsRowDxfId="9"/>
@@ -1257,10 +1257,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1731,28 +1731,188 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7">
+        <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="17">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="17">
         <f>SUBTOTAL(109,Acts[7])</f>
         <v>0</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H39" s="17">
         <f>SUBTOTAL(109,Acts[8])</f>
         <v>0</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="17">
+      <c r="I39" s="15"/>
+      <c r="J39" s="17">
         <f>SUBTOTAL(109,Acts[10])</f>
         <v>0</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K39" s="18"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
